--- a/example/ccm_RLC.xlsx
+++ b/example/ccm_RLC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvilm\PycharmProjects\CCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bevil\PycharmProjects\ComponentConnectionMethod\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4760663F-3C39-4FB3-AB46-D9DD5A37291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DB4713-87C9-4D1D-8954-423592AD04FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="2" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
+    <workbookView xWindow="6710" yWindow="3820" windowWidth="28800" windowHeight="15380" tabRatio="874" activeTab="2" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="L_map" sheetId="3" r:id="rId1"/>
@@ -359,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -374,9 +374,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -701,15 +700,15 @@
       <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -729,7 +728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -749,7 +748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -769,7 +768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -789,7 +788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -809,7 +808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -829,7 +828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -849,7 +848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -869,7 +868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -889,7 +888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -909,7 +908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -929,7 +928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -949,7 +948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -983,12 +982,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1085,12 +1084,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -1098,11 +1097,11 @@
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1110,11 +1109,11 @@
       <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1141,12 +1140,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -1158,7 +1157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1168,7 +1167,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1192,8 +1191,8 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7"/>

--- a/example/ccm_RLC.xlsx
+++ b/example/ccm_RLC.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvilm\PycharmProjects\CCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bevil\PycharmProjects\ComponentConnectionMethod\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4760663F-3C39-4FB3-AB46-D9DD5A37291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE61C4DB-491B-4D22-B90B-E78926ED41CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="2" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="874" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="L_map" sheetId="3" r:id="rId1"/>
     <sheet name="var" sheetId="23" r:id="rId2"/>
-    <sheet name="SS0" sheetId="37" r:id="rId3"/>
-    <sheet name="SS1" sheetId="5" r:id="rId4"/>
+    <sheet name="SS1" sheetId="37" r:id="rId3"/>
+    <sheet name="SS2" sheetId="5" r:id="rId4"/>
+    <sheet name="SS3" sheetId="38" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>group</t>
   </si>
@@ -359,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -374,9 +375,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -697,8 +697,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -794,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1084,8 +1084,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1098,7 @@
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>-1</v>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C3" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1193,7 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7"/>
@@ -1206,4 +1206,75 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A68B70D-F66B-4F4A-8017-AEED13E5F781}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/ccm_RLC.xlsx
+++ b/example/ccm_RLC.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bevil\PycharmProjects\ComponentConnectionMethod\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bevil\Downloads\ComponentConnectionMethod-main(1)\ComponentConnectionMethod-main\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE61C4DB-491B-4D22-B90B-E78926ED41CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314B9169-88F7-48A1-9A25-8350A6D3BD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="874" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" activeTab="1" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="L_map" sheetId="3" r:id="rId1"/>
     <sheet name="var" sheetId="23" r:id="rId2"/>
-    <sheet name="SS1" sheetId="37" r:id="rId3"/>
-    <sheet name="SS2" sheetId="5" r:id="rId4"/>
-    <sheet name="SS3" sheetId="38" r:id="rId5"/>
+    <sheet name="SS0" sheetId="37" r:id="rId3"/>
+    <sheet name="SS1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>group</t>
   </si>
@@ -697,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -754,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -774,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -794,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -814,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -834,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -854,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -874,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -894,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -981,7 +980,9 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1084,8 +1085,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1142,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:D5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,75 +1207,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A68B70D-F66B-4F4A-8017-AEED13E5F781}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>